--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,18 +55,18 @@
     <t>die</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,48 +88,48 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -139,25 +139,31 @@
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,13 +614,13 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.821917808219178</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8813559322033898</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
@@ -784,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5329457364341085</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C9">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8018867924528302</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5238095238095238</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.795774647887324</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1002,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7804878048780488</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4697986577181208</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1052,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1102,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
@@ -1134,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2619047619047619</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1152,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1184,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1394101876675603</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1202,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7625</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,37 +1240,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.009987113402061855</v>
+        <v>0.01095008051529791</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F16">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1284,13 +1290,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1302,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1362,13 +1368,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6264705882352941</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L20">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="M20">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1388,13 +1394,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1414,13 +1420,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1440,25 +1446,25 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5983263598326359</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L23">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="M23">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1466,13 +1472,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5932203389830508</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1484,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1492,13 +1498,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1510,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1518,13 +1524,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5428571428571428</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1544,25 +1550,77 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5280898876404494</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L27">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>36</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L28">
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <v>42</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>47</v>
       </c>
-      <c r="M27">
-        <v>47</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>42</v>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
